--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.34123004044825</v>
+        <v>21.78783233333333</v>
       </c>
       <c r="H2">
-        <v>1.34123004044825</v>
+        <v>65.363497</v>
       </c>
       <c r="I2">
-        <v>0.596261898520163</v>
+        <v>0.9024488799587679</v>
       </c>
       <c r="J2">
-        <v>0.596261898520163</v>
+        <v>0.9024488799587679</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.74801824168311</v>
+        <v>11.08503166666667</v>
       </c>
       <c r="N2">
-        <v>2.74801824168311</v>
+        <v>33.255095</v>
       </c>
       <c r="O2">
-        <v>0.1805519873185293</v>
+        <v>0.4259149152633459</v>
       </c>
       <c r="P2">
-        <v>0.1805519873185293</v>
+        <v>0.4259149152633459</v>
       </c>
       <c r="Q2">
-        <v>3.685724617445167</v>
+        <v>241.5188113630238</v>
       </c>
       <c r="R2">
-        <v>3.685724617445167</v>
+        <v>2173.669302267215</v>
       </c>
       <c r="S2">
-        <v>0.1076562707401347</v>
+        <v>0.38436643823714</v>
       </c>
       <c r="T2">
-        <v>0.1076562707401347</v>
+        <v>0.38436643823714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.34123004044825</v>
+        <v>21.78783233333333</v>
       </c>
       <c r="H3">
-        <v>1.34123004044825</v>
+        <v>65.363497</v>
       </c>
       <c r="I3">
-        <v>0.596261898520163</v>
+        <v>0.9024488799587679</v>
       </c>
       <c r="J3">
-        <v>0.596261898520163</v>
+        <v>0.9024488799587679</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>12.4720758846422</v>
+        <v>0.312365</v>
       </c>
       <c r="N3">
-        <v>12.4720758846422</v>
+        <v>0.937095</v>
       </c>
       <c r="O3">
-        <v>0.8194480126814706</v>
+        <v>0.01200185227312402</v>
       </c>
       <c r="P3">
-        <v>0.8194480126814706</v>
+        <v>0.01200185227312402</v>
       </c>
       <c r="Q3">
-        <v>16.7279228432323</v>
+        <v>6.805756246801666</v>
       </c>
       <c r="R3">
-        <v>16.7279228432323</v>
+        <v>61.251806221215</v>
       </c>
       <c r="S3">
-        <v>0.4886056277800283</v>
+        <v>0.01083105814131136</v>
       </c>
       <c r="T3">
-        <v>0.4886056277800283</v>
+        <v>0.01083105814131136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9081674873444729</v>
+        <v>21.78783233333333</v>
       </c>
       <c r="H4">
-        <v>0.9081674873444729</v>
+        <v>65.363497</v>
       </c>
       <c r="I4">
-        <v>0.403738101479837</v>
+        <v>0.9024488799587679</v>
       </c>
       <c r="J4">
-        <v>0.403738101479837</v>
+        <v>0.9024488799587679</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.74801824168311</v>
+        <v>14.62900266666666</v>
       </c>
       <c r="N4">
-        <v>2.74801824168311</v>
+        <v>43.88700799999999</v>
       </c>
       <c r="O4">
-        <v>0.1805519873185293</v>
+        <v>0.5620832324635302</v>
       </c>
       <c r="P4">
-        <v>0.1805519873185293</v>
+        <v>0.5620832324635302</v>
       </c>
       <c r="Q4">
-        <v>2.495660821726127</v>
+        <v>318.7342573052195</v>
       </c>
       <c r="R4">
-        <v>2.495660821726127</v>
+        <v>2868.608315746975</v>
       </c>
       <c r="S4">
-        <v>0.07289571657839464</v>
+        <v>0.5072513835803166</v>
       </c>
       <c r="T4">
-        <v>0.07289571657839464</v>
+        <v>0.5072513835803166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.359006333333333</v>
+      </c>
+      <c r="H5">
+        <v>4.077019</v>
+      </c>
+      <c r="I5">
+        <v>0.05628984676448105</v>
+      </c>
+      <c r="J5">
+        <v>0.05628984676448104</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>11.08503166666667</v>
+      </c>
+      <c r="N5">
+        <v>33.255095</v>
+      </c>
+      <c r="O5">
+        <v>0.4259149152633459</v>
+      </c>
+      <c r="P5">
+        <v>0.4259149152633459</v>
+      </c>
+      <c r="Q5">
+        <v>15.06462824020055</v>
+      </c>
+      <c r="R5">
+        <v>135.581654161805</v>
+      </c>
+      <c r="S5">
+        <v>0.02397468531488067</v>
+      </c>
+      <c r="T5">
+        <v>0.02397468531488067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.359006333333333</v>
+      </c>
+      <c r="H6">
+        <v>4.077019</v>
+      </c>
+      <c r="I6">
+        <v>0.05628984676448105</v>
+      </c>
+      <c r="J6">
+        <v>0.05628984676448104</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.312365</v>
+      </c>
+      <c r="N6">
+        <v>0.937095</v>
+      </c>
+      <c r="O6">
+        <v>0.01200185227312402</v>
+      </c>
+      <c r="P6">
+        <v>0.01200185227312402</v>
+      </c>
+      <c r="Q6">
+        <v>0.4245060133116667</v>
+      </c>
+      <c r="R6">
+        <v>3.820554119805</v>
+      </c>
+      <c r="S6">
+        <v>0.0006755824253440894</v>
+      </c>
+      <c r="T6">
+        <v>0.0006755824253440893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.359006333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.077019</v>
+      </c>
+      <c r="I7">
+        <v>0.05628984676448105</v>
+      </c>
+      <c r="J7">
+        <v>0.05628984676448104</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.62900266666666</v>
+      </c>
+      <c r="N7">
+        <v>43.88700799999999</v>
+      </c>
+      <c r="O7">
+        <v>0.5620832324635302</v>
+      </c>
+      <c r="P7">
+        <v>0.5620832324635302</v>
+      </c>
+      <c r="Q7">
+        <v>19.88090727435022</v>
+      </c>
+      <c r="R7">
+        <v>178.928165469152</v>
+      </c>
+      <c r="S7">
+        <v>0.03163957902425629</v>
+      </c>
+      <c r="T7">
+        <v>0.03163957902425629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9961713333333334</v>
+      </c>
+      <c r="H8">
+        <v>2.988514</v>
+      </c>
+      <c r="I8">
+        <v>0.04126127327675106</v>
+      </c>
+      <c r="J8">
+        <v>0.04126127327675105</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.08503166666667</v>
+      </c>
+      <c r="N8">
+        <v>33.255095</v>
+      </c>
+      <c r="O8">
+        <v>0.4259149152633459</v>
+      </c>
+      <c r="P8">
+        <v>0.4259149152633459</v>
+      </c>
+      <c r="Q8">
+        <v>11.04259077542556</v>
+      </c>
+      <c r="R8">
+        <v>99.38331697883001</v>
+      </c>
+      <c r="S8">
+        <v>0.01757379171132518</v>
+      </c>
+      <c r="T8">
+        <v>0.01757379171132518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.9081674873444729</v>
-      </c>
-      <c r="H5">
-        <v>0.9081674873444729</v>
-      </c>
-      <c r="I5">
-        <v>0.403738101479837</v>
-      </c>
-      <c r="J5">
-        <v>0.403738101479837</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>12.4720758846422</v>
-      </c>
-      <c r="N5">
-        <v>12.4720758846422</v>
-      </c>
-      <c r="O5">
-        <v>0.8194480126814706</v>
-      </c>
-      <c r="P5">
-        <v>0.8194480126814706</v>
-      </c>
-      <c r="Q5">
-        <v>11.3267338181251</v>
-      </c>
-      <c r="R5">
-        <v>11.3267338181251</v>
-      </c>
-      <c r="S5">
-        <v>0.3308423849014424</v>
-      </c>
-      <c r="T5">
-        <v>0.3308423849014424</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9961713333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.988514</v>
+      </c>
+      <c r="I9">
+        <v>0.04126127327675106</v>
+      </c>
+      <c r="J9">
+        <v>0.04126127327675105</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.312365</v>
+      </c>
+      <c r="N9">
+        <v>0.937095</v>
+      </c>
+      <c r="O9">
+        <v>0.01200185227312402</v>
+      </c>
+      <c r="P9">
+        <v>0.01200185227312402</v>
+      </c>
+      <c r="Q9">
+        <v>0.3111690585366667</v>
+      </c>
+      <c r="R9">
+        <v>2.80052152683</v>
+      </c>
+      <c r="S9">
+        <v>0.0004952117064685659</v>
+      </c>
+      <c r="T9">
+        <v>0.0004952117064685658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9961713333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.988514</v>
+      </c>
+      <c r="I10">
+        <v>0.04126127327675106</v>
+      </c>
+      <c r="J10">
+        <v>0.04126127327675105</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.62900266666666</v>
+      </c>
+      <c r="N10">
+        <v>43.88700799999999</v>
+      </c>
+      <c r="O10">
+        <v>0.5620832324635302</v>
+      </c>
+      <c r="P10">
+        <v>0.5620832324635302</v>
+      </c>
+      <c r="Q10">
+        <v>14.57299309179022</v>
+      </c>
+      <c r="R10">
+        <v>131.156937826112</v>
+      </c>
+      <c r="S10">
+        <v>0.02319226985895731</v>
+      </c>
+      <c r="T10">
+        <v>0.02319226985895731</v>
       </c>
     </row>
   </sheetData>
